--- a/Document/ConvertToEntity.xlsx
+++ b/Document/ConvertToEntity.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\PalFight\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\Mine\MyECSPractice\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2CB65C-623E-4116-938C-C5D36C6FC2CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F7B74E-2F7E-45E6-9DAC-C9E8E7C46068}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{99C12A0D-F6A6-4331-B3D2-2CCF591853ED}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,8 +30,45 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>李华</author>
+  </authors>
+  <commentList>
+    <comment ref="L75" authorId="0" shapeId="0" xr:uid="{2B807D98-C4D2-4189-A12E-5EE24D341863}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>李华:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+EntityManager居然分开了，而且还是Struct
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="152">
   <si>
     <t>ConvertToEntity.cs</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -390,9 +426,6 @@
     <t xml:space="preserve">        public static Entity AddToEntityManager(EntityManager entityManager, GameObject gameObject)</t>
   </si>
   <si>
-    <t xml:space="preserve">            var entity = GameObjectConversionMappingSystem.CreateGameObjectEntity(entityManager, gameObject, s_ComponentsCache);</t>
-  </si>
-  <si>
     <t xml:space="preserve">            s_ComponentsCache.Clear();</t>
   </si>
   <si>
@@ -406,56 +439,226 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">            var componentTypes = stackalloc ComponentType[128];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if (!gameObject.GetComponents(componentTypes, 128, componentsCache))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                return Entity.Null;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            EntityArchetype archetype = entityManager.CreateArchetype(componentTypes, componentsCache.Count);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            var entity = entityManager.CreateEntity(archetype);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            for (var i = 0; i != componentsCache.Count; i++)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                var com = componentsCache[i];</t>
+  </si>
+  <si>
+    <t>#pragma warning disable 618 // remove once ComponentDataProxyBase is removed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                var componentDataProxy = com as ComponentDataProxyBase;</t>
+  </si>
+  <si>
+    <t>#pragma warning restore 618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                if (componentDataProxy != null)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    componentDataProxy.UpdateComponentData(entityManager, entity);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                else if (com != null)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    entityManager.SetComponentObject(entity, componentTypes[i], com);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            var entity = GameObjectConversionMappingSystem.CreateGameObjectEntity(entityManager, gameObject, s_ComponentsCache);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class GameObjectConversionMappingSystem : ComponentSystem</t>
+  </si>
+  <si>
     <t xml:space="preserve">        internal static unsafe Entity CreateGameObjectEntity(EntityManager entityManager, GameObject gameObject, List&lt;UnityComponent&gt; componentsCache)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            var componentTypes = stackalloc ComponentType[128];</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            if (!gameObject.GetComponents(componentTypes, 128, componentsCache))</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                return Entity.Null;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            EntityArchetype archetype = entityManager.CreateArchetype(componentTypes, componentsCache.Count);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            var entity = entityManager.CreateEntity(archetype);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            for (var i = 0; i != componentsCache.Count; i++)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                var com = componentsCache[i];</t>
-  </si>
-  <si>
-    <t>#pragma warning disable 618 // remove once ComponentDataProxyBase is removed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                var componentDataProxy = com as ComponentDataProxyBase;</t>
-  </si>
-  <si>
-    <t>#pragma warning restore 618</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                if (componentDataProxy != null)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    componentDataProxy.UpdateComponentData(entityManager, entity);</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                else if (com != null)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                    entityManager.SetComponentObject(entity, componentTypes[i], com);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            return entity;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        public static unsafe bool GetComponents(this GameObject @this, ComponentType* componentTypes, int maxComponentTypes, List&lt;Component&gt; componentsCache)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            int outputIndex = 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            @this.GetComponents(componentsCache);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            if (maxComponentTypes &lt; componentsCache.Count)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                LogWarning($"Too many components on {@this.name}", @this);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                return false;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                var component = componentsCache[i];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                if (component == null)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    LogWarning($"The referenced script is missing on {@this.name}", @this);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                else if (!component.IsComponentDisabled() &amp;&amp; !(component is GameObjectEntity))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    var componentType =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        (component as ComponentDataProxyBase)?.GetComponentType() ?? component.GetType();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    var isUniqueType = true;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    for (var j = 0; j &lt; outputIndex; ++j)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        if (componentTypes[j].Equals(componentType))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            isUniqueType = false;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            break;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    if (!isUniqueType)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        continue;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    componentsCache[outputIndex] = component;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    componentTypes[outputIndex] = componentType;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    outputIndex++;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            componentsCache.RemoveRange(outputIndex, componentsCache.Count - outputIndex);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            return true;</t>
+  </si>
+  <si>
+    <t>UnityEngineExtensions.cs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntityManagerCreateArchetype.cs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public unsafe partial struct EntityManager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        internal EntityArchetype CreateArchetype(ComponentType* types, int count)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            var access = GetCheckedEntityDataAccess();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            return access-&gt;CreateArchetype(types, count);</t>
+  </si>
+  <si>
+    <t>EntityManagerCreateDestroyEntities.cs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/// &lt;summary&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        /// Creates an entity having the specified archetype.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        /// &lt;/summary&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        /// &lt;remarks&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        /// The EntityManager creates the entity in the first available chunk with the matching archetype that has</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        /// enough space.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        ///</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        /// **Important:** This function creates a sync point, which means that the EntityManager waits for all</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        /// currently running Jobs to complete before creating the entity and no additional Jobs can start before</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        /// the function is finished. A sync point can cause a drop in performance because the ECS framework may not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        /// be able to make use of the processing power of all available cores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        /// &lt;/remarks&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        /// &lt;param name="archetype"&gt;The archetype for the new entity.&lt;/param&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        /// &lt;returns&gt;The Entity object that you can use to access the entity.&lt;/returns&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        [StructuralChangeMethod]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        public Entity CreateEntity(EntityArchetype archetype)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            return access-&gt;CreateEntity(archetype);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            var access = GetCheckedEntityDataAccess();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntityDataAccess.cs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsafe struct EntityDataAccess : IDisposable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,6 +718,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -768,98 +986,101 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1176,11 +1397,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03F1907-DA30-4DFE-9AF4-D6E174644681}">
-  <dimension ref="A1:H84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C03F1907-DA30-4DFE-9AF4-D6E174644681}">
+  <dimension ref="A1:P92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1190,690 +1411,932 @@
     <col min="4" max="4" width="123.5" customWidth="1"/>
     <col min="6" max="6" width="123.625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="143.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="155.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="73.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="39.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="20"/>
+      <c r="D6" s="29"/>
     </row>
     <row r="7" spans="1:6" ht="200.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="F7" s="29"/>
+      <c r="D7" s="5"/>
+      <c r="F7" s="26"/>
     </row>
     <row r="8" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="F8" s="29"/>
+      <c r="D8" s="5"/>
+      <c r="F8" s="26"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="F9" s="29"/>
+      <c r="D9" s="7"/>
+      <c r="F9" s="26"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="F10" s="29"/>
+      <c r="D10" s="5"/>
+      <c r="F10" s="26"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="F11" s="29"/>
+      <c r="D11" s="5"/>
+      <c r="F11" s="26"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="F12" s="29"/>
+      <c r="D12" s="5"/>
+      <c r="F12" s="26"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C13" s="10"/>
-      <c r="D13" s="6"/>
-      <c r="F13" s="29"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="5"/>
+      <c r="F13" s="26"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="F14" s="29"/>
+      <c r="D14" s="5"/>
+      <c r="F14" s="26"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="F15" s="29"/>
+      <c r="D15" s="5"/>
+      <c r="F15" s="26"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="F16" s="29"/>
+      <c r="D16" s="5"/>
+      <c r="F16" s="26"/>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C17" s="10"/>
-      <c r="D17" s="6"/>
-      <c r="F17" s="29"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="5"/>
+      <c r="F17" s="26"/>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="F18" s="29"/>
+      <c r="D18" s="5"/>
+      <c r="F18" s="26"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="F19" s="29"/>
+      <c r="D19" s="5"/>
+      <c r="F19" s="26"/>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="F20" s="29"/>
+      <c r="D20" s="5"/>
+      <c r="F20" s="26"/>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C21" s="10"/>
-      <c r="D21" s="6"/>
-      <c r="F21" s="29"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="5"/>
+      <c r="F21" s="26"/>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="F22" s="29"/>
+      <c r="D22" s="5"/>
+      <c r="F22" s="26"/>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="F23" s="29"/>
+      <c r="D23" s="5"/>
+      <c r="F23" s="26"/>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="F24" s="29"/>
+      <c r="D24" s="5"/>
+      <c r="F24" s="26"/>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="F25" s="29"/>
+      <c r="D25" s="5"/>
+      <c r="F25" s="26"/>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C26" s="10"/>
-      <c r="D26" s="6"/>
-      <c r="F26" s="29"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="5"/>
+      <c r="F26" s="26"/>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="F27" s="29"/>
+      <c r="D27" s="5"/>
+      <c r="F27" s="26"/>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C28" s="10"/>
-      <c r="D28" s="6"/>
-      <c r="F28" s="29"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="5"/>
+      <c r="F28" s="26"/>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="F29" s="29"/>
+      <c r="D29" s="5"/>
+      <c r="F29" s="26"/>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="F30" s="29"/>
+      <c r="D30" s="5"/>
+      <c r="F30" s="26"/>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="F31" s="29"/>
+      <c r="D31" s="5"/>
+      <c r="F31" s="26"/>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="F32" s="29"/>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C33" s="10" t="s">
+      <c r="D32" s="5"/>
+      <c r="F32" s="26"/>
+    </row>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C33" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="F33" s="29"/>
-    </row>
-    <row r="34" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="10" t="s">
+      <c r="D33" s="5"/>
+      <c r="F33" s="26"/>
+    </row>
+    <row r="34" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F34" s="30"/>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C35" s="10" t="s">
+      <c r="F34" s="27"/>
+    </row>
+    <row r="35" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C35" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F35" s="25" t="s">
+      <c r="F35" s="22" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C36" s="10" t="s">
+    <row r="36" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C36" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F36" s="25"/>
-    </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C37" s="10" t="s">
+      <c r="F36" s="22"/>
+    </row>
+    <row r="37" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C37" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F37" s="25"/>
-    </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C38" s="10" t="s">
+      <c r="F37" s="22"/>
+    </row>
+    <row r="38" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C38" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F38" s="25"/>
-    </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C39" s="10" t="s">
+      <c r="F38" s="22"/>
+    </row>
+    <row r="39" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C39" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F39" s="25"/>
-    </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C40" s="10"/>
-      <c r="D40" s="12" t="s">
+      <c r="F39" s="22"/>
+    </row>
+    <row r="40" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C40" s="9"/>
+      <c r="D40" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F40" s="25" t="s">
+      <c r="F40" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="H40" t="s">
         <v>82</v>
       </c>
-      <c r="H40" t="s">
+    </row>
+    <row r="41" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C41" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="F41" s="22"/>
+    </row>
+    <row r="42" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="L42" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C43" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="F43" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C44" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C45" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L45" t="s">
+        <v>127</v>
+      </c>
+      <c r="P45" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C46" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C41" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="12"/>
-      <c r="F41" s="25"/>
-    </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C42" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F42" s="26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C43" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="12"/>
-      <c r="F43" s="25" t="s">
+      <c r="P46" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F47" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L47" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C48" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J48" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C44" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F44" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C45" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="12" t="s">
+      <c r="L48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C49" s="9"/>
+      <c r="D49" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="J49" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L49" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C50" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F45" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="H45" s="2" t="s">
+      <c r="H50" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L50" s="31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C51" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="L51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C52" s="9"/>
+      <c r="D52" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H52" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C53" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H53" s="1"/>
+      <c r="J53" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C54" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L54" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C55" s="9"/>
+      <c r="D55" s="5"/>
+      <c r="H55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C56" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="H56" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L56" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C57" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="5"/>
+      <c r="H57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="L57" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C58" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="H58" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L58" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C59" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="H59" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L59" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C60" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D60" s="5"/>
+      <c r="H60" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L60" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C61" s="9"/>
+      <c r="D61" s="5"/>
+      <c r="H61" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J61" s="1"/>
+      <c r="L61" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C62" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D62" s="5"/>
+      <c r="H62" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L62" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C63" s="9"/>
+      <c r="D63" s="5"/>
+      <c r="H63" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="L63" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C64" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D64" s="5"/>
+      <c r="H64" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="L64" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="65" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C65" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D65" s="5"/>
+      <c r="H65" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L65" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C66" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L66" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C67" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C46" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F46" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="47" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F47" s="27" t="s">
+      <c r="H67" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L67" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C68" s="9"/>
+      <c r="D68" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J68" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="L68" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="69" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C69" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L69" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="70" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C70" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="L70" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="71" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C71" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L71" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="72" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C72" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H72" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H47" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C48" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" s="12" t="s">
+      <c r="J72" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L72" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C73" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L73" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C74" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="L74" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C75" s="9"/>
+      <c r="D75" s="1"/>
+      <c r="J75" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L75" s="31" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C76" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D76" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L76" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C77" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H48" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C49" s="10"/>
-      <c r="D49" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H49" s="2"/>
-    </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C50" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C51" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="H51" s="2"/>
-    </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C52" s="10"/>
-      <c r="D52" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C53" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D53" s="12" t="s">
+      <c r="J77" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="78" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C78" s="9"/>
+      <c r="D78" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C79" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D79" s="5"/>
+      <c r="J79" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C80" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D80" s="5"/>
+      <c r="J80" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C81" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D81" s="5"/>
+      <c r="J81" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="82" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C82" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D82" s="5"/>
+      <c r="J82" s="1"/>
+    </row>
+    <row r="83" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C83" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D83" s="5"/>
+      <c r="J83" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="3:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C84" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H53" s="2"/>
-    </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C54" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D54" s="13" t="s">
+      <c r="D84" s="14"/>
+      <c r="J84" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="J85" s="1"/>
+    </row>
+    <row r="86" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="J86" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="J87" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="88" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="J88" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="89" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="J89" s="1"/>
+    </row>
+    <row r="90" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="J90" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="J91" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="J92" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H54" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C55" s="10"/>
-      <c r="D55" s="6"/>
-      <c r="H55" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C56" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D56" s="6"/>
-      <c r="H56" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C57" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="6"/>
-      <c r="H57" s="2"/>
-    </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C58" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D58" s="6"/>
-      <c r="H58" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C59" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D59" s="6"/>
-      <c r="H59" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C60" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D60" s="6"/>
-      <c r="H60" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C61" s="10"/>
-      <c r="D61" s="6"/>
-      <c r="H61" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C62" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D62" s="6"/>
-      <c r="H62" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C63" s="10"/>
-      <c r="D63" s="6"/>
-      <c r="H63" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C64" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D64" s="6"/>
-      <c r="H64" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C65" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D65" s="6"/>
-      <c r="H65" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C66" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="67" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C67" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="68" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C68" s="10"/>
-      <c r="D68" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="69" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C69" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="70" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C70" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H70" s="2"/>
-    </row>
-    <row r="71" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C71" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="72" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C72" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="73" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C73" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="74" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C74" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C75" s="10"/>
-      <c r="D75" s="2"/>
-    </row>
-    <row r="76" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C76" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D76" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C77" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="78" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C78" s="10"/>
-      <c r="D78" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="79" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C79" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D79" s="6"/>
-    </row>
-    <row r="80" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C80" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D80" s="6"/>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C81" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D81" s="6"/>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C82" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D82" s="6"/>
-    </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C83" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D83" s="6"/>
-    </row>
-    <row r="84" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C84" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D84" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1886,5 +2349,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>